--- a/Data/output.xlsx
+++ b/Data/output.xlsx
@@ -855,4507 +855,4507 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.3690859492379573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.7359554509984324</v>
+        <v>-0.3690859492379573</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.099989859199592</v>
+        <v>-0.7359554509984324</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-1.460578430213688</v>
+        <v>-1.099989859199592</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.817119338969315</v>
+        <v>-1.460578430213688</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-2.169020674924588</v>
+        <v>-1.817119338969315</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-2.515701416284907</v>
+        <v>-2.169020674924588</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-2.856592380884216</v>
+        <v>-2.515701416284907</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-3.191137152196384</v>
+        <v>-2.856592380884216</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-3.51879297899345</v>
+        <v>-3.191137152196384</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-3.839031647219954</v>
+        <v>-3.51879297899345</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-4.151340322707257</v>
+        <v>-3.839031647219954</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-4.455222363408518</v>
+        <v>-4.151340322707257</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-4.750198099893822</v>
+        <v>-4.455222363408518</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5.035805582905638</v>
+        <v>-4.750198099893822</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-5.311601296837249</v>
+        <v>-5.035805582905638</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-5.577160838060968</v>
+        <v>-5.311601296837249</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.83207955709865</v>
+        <v>-5.577160838060968</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-6.075973163694094</v>
+        <v>-5.83207955709865</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-6.30847829391544</v>
+        <v>-6.075973163694094</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-6.529253038485241</v>
+        <v>-6.30847829391544</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-6.737977431606573</v>
+        <v>-6.529253038485241</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-6.934353899625216</v>
+        <v>-6.737977431606573</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-7.118107668940329</v>
+        <v>-6.934353899625216</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-7.288987132649155</v>
+        <v>-7.118107668940329</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-7.446764175485003</v>
+        <v>-7.288987132649155</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-7.591234456681784</v>
+        <v>-7.446764175485003</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-7.722217650472802</v>
+        <v>-7.591234456681784</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-7.83955764400604</v>
+        <v>-7.722217650472802</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-7.943122692532752</v>
+        <v>-7.83955764400604</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-8.032805531800671</v>
+        <v>-7.943122692532752</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-8.108523447657408</v>
+        <v>-8.032805531800671</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-8.170218302943537</v>
+        <v>-8.108523447657408</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-8.217856521828285</v>
+        <v>-8.170218302943537</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-8.251429031813611</v>
+        <v>-8.217856521828285</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-8.270951163704545</v>
+        <v>-8.251429031813611</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-8.276462509914941</v>
+        <v>-8.270951163704545</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-8.268026741548082</v>
+        <v>-8.276462509914941</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-8.245731384760795</v>
+        <v>-8.268026741548082</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-8.209687556987735</v>
+        <v>-8.245731384760795</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-8.160029663669201</v>
+        <v>-8.209687556987735</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-8.09691505619109</v>
+        <v>-8.160029663669201</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-8.02052365180937</v>
+        <v>-8.09691505619109</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-7.931057516393503</v>
+        <v>-8.02052365180937</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-7.828740410883641</v>
+        <v>-7.931057516393503</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-7.713817302414925</v>
+        <v>-7.828740410883641</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-7.586553841118815</v>
+        <v>-7.713817302414925</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-7.447235803665947</v>
+        <v>-7.586553841118815</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-7.296168504667482</v>
+        <v>-7.447235803665947</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-7.133676177102202</v>
+        <v>-7.296168504667482</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-6.96010132298461</v>
+        <v>-7.133676177102202</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-6.775804035534993</v>
+        <v>-6.96010132298461</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-6.581161294155651</v>
+        <v>-6.775804035534993</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-6.376566233558355</v>
+        <v>-6.581161294155651</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-6.162427388426329</v>
+        <v>-6.376566233558355</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-5.93916791502977</v>
+        <v>-6.162427388426329</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-5.707224791247033</v>
+        <v>-5.93916791502977</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-5.467047996473926</v>
+        <v>-5.707224791247033</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-5.219099672931338</v>
+        <v>-5.467047996473926</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-4.963853269906314</v>
+        <v>-5.219099672931338</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-4.701792672483873</v>
+        <v>-4.963853269906314</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-4.433411316346251</v>
+        <v>-4.701792672483873</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-4.159211290232792</v>
+        <v>-4.433411316346251</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-3.87970242766745</v>
+        <v>-4.159211290232792</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-3.595401389571763</v>
+        <v>-3.87970242766745</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-3.306830739389178</v>
+        <v>-3.595401389571763</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-3.014518012351873</v>
+        <v>-3.306830739389178</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-2.718994780523535</v>
+        <v>-3.014518012351873</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-2.420795715251169</v>
+        <v>-2.718994780523535</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-2.120457648655715</v>
+        <v>-2.420795715251169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1.818518635785257</v>
+        <v>-2.120457648655715</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-1.515517019045784</v>
+        <v>-1.818518635785257</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1.211990496512952</v>
+        <v>-1.515517019045784</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.9084751957140714</v>
+        <v>-1.211990496512952</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.6055047544526742</v>
+        <v>-0.9084751957140714</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.3036094102285061</v>
+        <v>-0.6055047544526742</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.00331509978374151</v>
+        <v>-0.3036094102285061</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.2948574297183723</v>
+        <v>-0.00331509978374151</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.5903934964032754</v>
+        <v>0.2948574297183723</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.8827853448335459</v>
+        <v>0.5903934964032754</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.171532991178127</v>
+        <v>0.8827853448335459</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.456145051018481</v>
+        <v>1.171532991178127</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.736139548444132</v>
+        <v>1.456145051018481</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.01104470512844</v>
+        <v>1.736139548444132</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.280399708116007</v>
+        <v>2.01104470512844</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.543755455095527</v>
+        <v>2.280399708116007</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.800675275976322</v>
+        <v>2.543755455095527</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3.050735629632999</v>
+        <v>2.800675275976322</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3.293526774730617</v>
+        <v>3.050735629632999</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3.528653413592346</v>
+        <v>3.293526774730617</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.755735308122746</v>
+        <v>3.528653413592346</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3.974407866852459</v>
+        <v>3.755735308122746</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>4.184322702224034</v>
+        <v>3.974407866852459</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>4.38514815729395</v>
+        <v>4.184322702224034</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>4.576569801082287</v>
+        <v>4.38514815729395</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>4.758290891859057</v>
+        <v>4.576569801082287</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>4.930032807714689</v>
+        <v>4.758290891859057</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>5.091535443821539</v>
+        <v>4.930032807714689</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5.242557575853422</v>
+        <v>5.091535443821539</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>5.382877189090976</v>
+        <v>5.242557575853422</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>6.250463671277947</v>
+        <v>5.382877189090976</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>7.102529481544795</v>
+        <v>6.250463671277947</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>7.937674567528119</v>
+        <v>7.102529481544795</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>8.754534860414868</v>
+        <v>7.937674567528119</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9.551784460572661</v>
+        <v>8.754534860414868</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>10.32813774715317</v>
+        <v>9.551784460572661</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>11.08235140837313</v>
+        <v>10.32813774715317</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>11.81322638932801</v>
+        <v>11.08235140837313</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>12.51960975434913</v>
+        <v>11.81322638932801</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>13.20039646107448</v>
+        <v>12.51960975434913</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>13.85453104356789</v>
+        <v>13.20039646107448</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>14.48100920198903</v>
+        <v>13.85453104356789</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>15.07887929648821</v>
+        <v>14.48100920198903</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>15.64724374317542</v>
+        <v>15.07887929648821</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>16.18526031019038</v>
+        <v>15.64724374317542</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>16.692143312082</v>
+        <v>16.18526031019038</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>17.1671647008885</v>
+        <v>16.692143312082</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>17.60965505249501</v>
+        <v>17.1671647008885</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>18.01900444703324</v>
+        <v>17.60965505249501</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>18.39466324227608</v>
+        <v>18.01900444703324</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>18.73614273917101</v>
+        <v>18.39466324227608</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>19.04301573884639</v>
+        <v>18.73614273917101</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>19.31491699061716</v>
+        <v>19.04301573884639</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>19.55154353070773</v>
+        <v>19.31491699061716</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>19.75265491160199</v>
+        <v>19.55154353070773</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>19.91807332212148</v>
+        <v>19.75265491160199</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>20.04768359852341</v>
+        <v>19.91807332212148</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>20.14143312709949</v>
+        <v>20.04768359852341</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>20.19933163894445</v>
+        <v>20.14143312709949</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>20.22145089774918</v>
+        <v>20.19933163894445</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>20.20792428165709</v>
+        <v>20.22145089774918</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20.15894626040395</v>
+        <v>20.20792428165709</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>20.07477176913945</v>
+        <v>20.15894626040395</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>19.95571548050425</v>
+        <v>20.07477176913945</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>19.80215097670785</v>
+        <v>19.95571548050425</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>19.6145098235204</v>
+        <v>19.80215097670785</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>19.39328054825521</v>
+        <v>19.6145098235204</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>19.1390075239779</v>
+        <v>19.39328054825521</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>18.85228976233232</v>
+        <v>19.1390075239779</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>18.53377961752293</v>
+        <v>18.85228976233232</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>18.18418140413695</v>
+        <v>18.53377961752293</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>17.80424993162831</v>
+        <v>18.18418140413695</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>17.3947889584175</v>
+        <v>17.80424993162831</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>16.95664956868836</v>
+        <v>17.3947889584175</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>16.4907284750826</v>
+        <v>16.95664956868836</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>15.9979662506068</v>
+        <v>16.4907284750826</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>15.47934549317351</v>
+        <v>15.9979662506068</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>14.93588892629845</v>
+        <v>15.47934549317351</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>14.36865743956884</v>
+        <v>14.93588892629845</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>13.77874807258438</v>
+        <v>14.36865743956884</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>13.16729194615107</v>
+        <v>13.77874807258438</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>12.53545214457988</v>
+        <v>13.16729194615107</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11.88442155300669</v>
+        <v>12.53545214457988</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>11.21542065370672</v>
+        <v>11.88442155300669</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10.52969528542614</v>
+        <v>11.21542065370672</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>9.828514369795672</v>
+        <v>10.52969528542614</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>9.113167608925373</v>
+        <v>9.828514369795672</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>8.384963158306947</v>
+        <v>9.113167608925373</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>7.64522527916954</v>
+        <v>8.384963158306947</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>6.895291974447183</v>
+        <v>7.64522527916954</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>6.136512612521017</v>
+        <v>6.895291974447183</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>5.370245542897003</v>
+        <v>6.136512612521017</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>4.59785570797035</v>
+        <v>5.370245542897003</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3.820712255011228</v>
+        <v>4.59785570797035</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.040186152482779</v>
+        <v>3.820712255011228</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.257647814771931</v>
+        <v>3.040186152482779</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.474464739376392</v>
+        <v>2.257647814771931</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.6919991605473604</v>
+        <v>1.474464739376392</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.08839427666272269</v>
+        <v>0.6919991605473604</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.8653708180546027</v>
+        <v>-0.08839427666272269</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-1.637597873808743</v>
+        <v>-0.8653708180546027</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-2.403757260122544</v>
+        <v>-1.637597873808743</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-3.162547405271313</v>
+        <v>-2.403757260122544</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-3.912685516486192</v>
+        <v>-3.162547405271313</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-4.652909704127796</v>
+        <v>-3.912685516486192</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-5.381981059725218</v>
+        <v>-4.652909704127796</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-6.09868568454598</v>
+        <v>-5.381981059725218</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-6.801836665463376</v>
+        <v>-6.09868568454598</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-7.490275994993249</v>
+        <v>-6.801836665463376</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-8.162876432482289</v>
+        <v>-7.490275994993249</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-8.818543303544415</v>
+        <v>-8.162876432482289</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-9.456216234960305</v>
+        <v>-8.818543303544415</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-10.07487082237764</v>
+        <v>-9.456216234960305</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-10.67352022827576</v>
+        <v>-10.07487082237764</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-11.25121670778831</v>
+        <v>-10.67352022827576</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-11.80705306011018</v>
+        <v>-11.25121670778831</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-12.34016400335154</v>
+        <v>-11.80705306011018</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-12.84972747084054</v>
+        <v>-12.34016400335154</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-13.33496582701797</v>
+        <v>-12.84972747084054</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-13.79514700121152</v>
+        <v>-13.33496582701797</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-14.22958553772346</v>
+        <v>-13.79514700121152</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-14.63764356081415</v>
+        <v>-14.22958553772346</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-15.01873165331399</v>
+        <v>-14.63764356081415</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-15.3723096477481</v>
+        <v>-15.01873165331399</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-15.69788732901139</v>
+        <v>-15.3723096477481</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-15.99502504778559</v>
+        <v>-15.69788732901139</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-16.26333424404519</v>
+        <v>-15.99502504778559</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-16.50247788015482</v>
+        <v>-16.26333424404519</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-16.71217078321656</v>
+        <v>-16.50247788015482</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-16.89217989648218</v>
+        <v>-16.71217078321656</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-17.04232443980104</v>
+        <v>-16.89217989648218</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-17.53156192846827</v>
+        <v>-17.41141038903899</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-17.98851385708761</v>
+        <v>-17.89843143022875</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-18.41253768509225</v>
+        <v>-18.35254826528877</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-18.80305079024173</v>
+        <v>-18.77312625868806</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-19.15953119440518</v>
+        <v>-19.15959170863008</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-19.48151818145688</v>
+        <v>-19.51143255277805</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-19.76861280669796</v>
+        <v>-19.82819896446978</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-20.02047829740622</v>
+        <v>-20.10950383887983</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-20.23684034430431</v>
+        <v>-20.35502316877719</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-20.4174872839249</v>
+        <v>-20.56449630971755</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-20.56227017203929</v>
+        <v>-20.73772613470007</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-20.67110274850285</v>
+        <v>-20.87457907850828</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-20.74396129405676</v>
+        <v>-20.97498507214468</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-20.7808843798101</v>
+        <v>-21.03893736795591</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-20.78197251030923</v>
+        <v>-21.06649225623262</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-20.74738766128204</v>
+        <v>-21.05776867425273</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-20.67735271332326</v>
+        <v>-21.0129477089192</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-20.5721507829625</v>
+        <v>-20.93227199432374</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-20.43212445272962</v>
+        <v>-20.81604500574529</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-20.25767490200094</v>
+        <v>-20.66463025176573</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>-20.04926094057577</v>
+        <v>-20.47845036635643</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-19.80739794709412</v>
+        <v>-20.25798610295574</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-19.53265671456389</v>
+        <v>-20.00377523272032</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-19.22566220541853</v>
+        <v>-19.71641134929141</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-18.887092218674</v>
+        <v>-19.39654258257075</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-18.51767597189659</v>
+        <v>-19.04487022414931</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-18.11819260083048</v>
+        <v>-18.66214726717513</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>-17.68946957966536</v>
+        <v>-18.24917686358437</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-17.23238106505044</v>
+        <v>-17.80681070175141</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>-16.74784616708036</v>
+        <v>-17.33594730773949</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-16.23682715059204</v>
+        <v>-16.83753027345325</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-15.70032757021815</v>
+        <v>-16.31254641510697</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-15.13939034274257</v>
+        <v>-15.76202386552916</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-14.55509576039681</v>
+        <v>-15.18703010392339</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-13.94855944882193</v>
+        <v>-14.58866992679752</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-13.3209302734998</v>
+        <v>-13.96808336385924</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-12.67338819852903</v>
+        <v>-13.32644354275338</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-12.00714210168543</v>
+        <v>-12.66495450658738</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-11.3234275497636</v>
+        <v>-11.9848489882545</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-10.62350453824589</v>
+        <v>-11.28738614561974</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-9.908655199386894</v>
+        <v>-10.57384926168178</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-9.180181482836117</v>
+        <v>-9.845543413864604</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>-8.439402812948416</v>
+        <v>-9.103793116625232</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-7.687653726951161</v>
+        <v>-8.349939941589218</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-6.92628149814914</v>
+        <v>-7.585340119443229</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-6.156643748352659</v>
+        <v>-6.811362127823934</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-5.380106053711464</v>
+        <v>-6.029384269444962</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-4.598039548126945</v>
+        <v>-5.24079224469875</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-3.811818528397695</v>
+        <v>-4.446976722957678</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-3.022818065228987</v>
+        <v>-3.649330916779337</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-2.232411624205237</v>
+        <v>-2.84924816319386</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-1.441968700786066</v>
+        <v>-2.048119516217411</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-0.6528524733414693</v>
+        <v>-1.247331354695035</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.1335825218102733</v>
+        <v>-0.44826300952842</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.9159926894565137</v>
+        <v>0.3477155857101987</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1.693047644795179</v>
+        <v>1.139246216837632</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.463432449220672</v>
+        <v>1.924984679919648</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>3.225849808897396</v>
+        <v>2.703603037131428</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>3.979022232510103</v>
+        <v>3.473791833898191</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>4.721694144668448</v>
+        <v>4.234262273680828</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>5.452633951536731</v>
+        <v>4.983748346862312</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>6.170636055358667</v>
+        <v>5.721008910286936</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>6.874522814650965</v>
+        <v>6.444829714106048</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>7.563146446948199</v>
+        <v>7.154025372690638</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>8.235390871094964</v>
+        <v>7.84744127648258</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>8.890173486199059</v>
+        <v>8.523955441772566</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>9.526446884481631</v>
+        <v>9.182480295513312</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>10.14320049538624</v>
+        <v>9.821964392401489</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>10.73946215843871</v>
+        <v>10.44139406159061</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>11.31429962248328</v>
+        <v>11.03979498052979</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>11.86682196905697</v>
+        <v>11.61623367355943</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>12.39618095780474</v>
+        <v>12.16981893303432</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>12.90157229198007</v>
+        <v>12.69970316088758</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>13.38223680222183</v>
+        <v>13.20508362869381</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>13.83746154694577</v>
+        <v>13.68520365443857</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>14.26658082783933</v>
+        <v>14.13935369435135</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>14.66897711910059</v>
+        <v>14.56687234831213</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>15.04408190921569</v>
+        <v>14.96714727749609</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>15.39137645422476</v>
+        <v>15.33961603307745</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>15.71039244158227</v>
+        <v>15.6837667949707</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>16.00071256387556</v>
+        <v>15.99913901974675</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>16.26197100182309</v>
+        <v>16.28532399702091</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>16.49385381613266</v>
+        <v>16.54196531376987</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>16.69609924795811</v>
+        <v>16.76875922619585</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>16.8684979278521</v>
+        <v>16.9654549389165</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>17.01089299327028</v>
+        <v>17.13185479141996</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>17.1231801148398</v>
+        <v>17.2678143518846</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>17.20530743176208</v>
+        <v>17.37324241862236</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>17.2572753968745</v>
+        <v>17.44810092956301</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>17.27913653205055</v>
+        <v>17.49240478035404</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>17.27099509476935</v>
+        <v>17.50622155180633</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>17.23300665683668</v>
+        <v>17.48967114756972</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>17.16537759638678</v>
+        <v>17.44292534307432</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>17.06836450444057</v>
+        <v>17.36620724692285</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>16.94227350743818</v>
+        <v>17.25979067606611</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>16.78745950730356</v>
+        <v>17.1239994462376</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>16.60432534073564</v>
+        <v>16.95920657926423</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>16.39332085955324</v>
+        <v>16.76583342900727</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>16.1549419340502</v>
+        <v>16.5443487278217</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>15.88972938144269</v>
+        <v>16.29526755555211</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>15.59826782161134</v>
+        <v>16.01915023320885</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>15.28118446245784</v>
+        <v>15.71660114359001</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>14.9391478173074</v>
+        <v>15.38826748123156</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>14.57286635689599</v>
+        <v>15.03483793418046</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>14.18308709858315</v>
+        <v>14.65704130019273</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>13.77059413552867</v>
+        <v>14.25564504006077</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>13.33620710866287</v>
+        <v>13.83145377087131</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>12.88077962436669</v>
+        <v>13.38530770208657</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>12.40519762085858</v>
+        <v>12.91808101742768</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>11.91037768635993</v>
+        <v>12.43068020561912</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>11.39726533218026</v>
+        <v>11.92404234312774</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>10.86683322392657</v>
+        <v>11.39913333209816</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>10.32007937409818</v>
+        <v>10.85694609674902</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>9.7580252993803</v>
+        <v>10.29849874155064</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>9.181714145993817</v>
+        <v>9.724832674555065</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>8.592208786498347</v>
+        <v>9.137010699293244</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>7.990589891477977</v>
+        <v>8.536115078691878</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>7.377953979565741</v>
+        <v>7.923245574493865</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>6.75541144928317</v>
+        <v>7.299517465691314</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>6.124084596185355</v>
+        <v>6.66605954949901</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>5.485105618809879</v>
+        <v>6.024012128408664</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>4.839614616929775</v>
+        <v>5.374524986870575</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>4.188757585606321</v>
+        <v>4.71875536114942</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>3.533684408527132</v>
+        <v>4.057865905894736</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.875546854098679</v>
+        <v>3.393022660954444</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.215496577740065</v>
+        <v>2.725393021941505</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1.554683133796892</v>
+        <v>2.056143718039592</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.8942520004601964</v>
+        <v>1.386438800503527</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.2353426210360681</v>
+        <v>0.717437645274416</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-0.4209135351334023</v>
+        <v>0.05029297308785193</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-1.073394888847482</v>
+        <v>-0.6138511095935094</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-1.720991641127706</v>
+        <v>-1.273861045544206</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-2.362607634068296</v>
+        <v>-1.928615734416067</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-2.99716217938777</v>
+        <v>-2.577008409896131</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-3.623591851683993</v>
+        <v>-3.217948483292352</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-4.240852243470202</v>
+        <v>-3.850363350529915</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-4.847919679149361</v>
+        <v>-4.473200159618582</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-5.443792885168431</v>
+        <v>-5.085427535733601</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-6.027494613682563</v>
+        <v>-5.68603726113928</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-6.598073217151719</v>
+        <v>-6.274045907275076</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>-7.154604171388653</v>
+        <v>-6.848496416418883</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>-7.696191544677196</v>
+        <v>-7.408459630440918</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>-8.221969410683492</v>
+        <v>-7.953035764263998</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>-8.731103202989701</v>
+        <v>-8.481355821751947</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>-9.222791009189891</v>
+        <v>-8.992582951857147</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-9.696264802600838</v>
+        <v>-9.485913742970581</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>-10.15079160975636</v>
+        <v>-9.960579453533173</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>-10.58567461197222</v>
+        <v>-10.41584717708523</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>-11.00025417938935</v>
+        <v>-10.85102094005153</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>-11.39390883602635</v>
+        <v>-11.26544273068245</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-11.76605615449676</v>
+        <v>-11.65849345769695</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>-12.11615357917376</v>
+        <v>-12.02959383729998</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-12.44369917671273</v>
+        <v>-12.37820520737576</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-12.74823231297205</v>
+        <v>-12.70383026778906</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-13.02933425550292</v>
+        <v>-13.00601374585745</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-13.28662870091083</v>
+        <v>-13.28434298619099</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-13.51978222652327</v>
+        <v>-13.53844846422866</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-13.72850466593119</v>
+        <v>-13.76800422293555</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-13.91254940810478</v>
+        <v>-13.97272823225882</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-14.07171361991674</v>
+        <v>-14.15238267107578</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-14.20583839203939</v>
+        <v>-14.30677413150159</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-14.3148088083139</v>
+        <v>-14.43575374555885</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>-14.39855393882196</v>
+        <v>-14.53921723434509</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>-14.45704675702059</v>
+        <v>-14.61710487996748</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>-14.49030398143073</v>
+        <v>-14.66940142064608</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>-14.49838584249841</v>
+        <v>-14.69613586951829</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>-14.48139577537411</v>
+        <v>-14.6973812578065</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>-14.43948003948088</v>
+        <v>-14.67325430313912</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>-14.37282726586475</v>
+        <v>-14.62391500394116</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>-14.28166793344179</v>
+        <v>-14.54956616093471</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-14.16627377537445</v>
+        <v>-14.4504528269113</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-14.02695711692561</v>
+        <v>-14.32686168605736</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>-13.8640701462516</v>
+        <v>-14.17912036423083</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>-13.67800411970543</v>
+        <v>-14.0075966717</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-13.46918850332798</v>
+        <v>-13.81269777996683</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>-13.23809005230831</v>
+        <v>-13.59486933440366</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>-12.98521183029397</v>
+        <v>-13.35459450453628</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-12.71109217052788</v>
+        <v>-13.09239297390615</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-12.41630358088081</v>
+        <v>-12.8088198715409</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-12.10145159493617</v>
+        <v>-12.50446464715437</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-11.76717357136778</v>
+        <v>-12.17994989228559</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-11.4141374439306</v>
+        <v>-11.83593010966966</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-11.04304042445974</v>
+        <v>-11.47309043321319</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-10.654607661343</v>
+        <v>-11.09214530102127</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-10.24959085599846</v>
+        <v>-10.69383708399346</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-9.828766839949161</v>
+        <v>-10.27893467257136</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>-9.392936115143343</v>
+        <v>-9.848232024280929</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-8.942921360219726</v>
+        <v>-9.402546674768065</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-8.479565905463467</v>
+        <v>-8.942718215076663</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>-8.003732179239561</v>
+        <v>-8.469606737963554</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-7.516300128726506</v>
+        <v>-7.984091256085079</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>-7.018165617803782</v>
+        <v>-7.487068094925105</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>-6.510238804972533</v>
+        <v>-6.979449263364105</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-5.993442504209273</v>
+        <v>-6.462160804813577</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-5.468710531667847</v>
+        <v>-5.936141131859408</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-4.936986041155048</v>
+        <v>-5.402339347371969</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-4.399219851310321</v>
+        <v>-4.861713555049541</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-3.85636876741993</v>
+        <v>-4.315229162365418</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-3.309393900790743</v>
+        <v>-3.763857178887488</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-2.759258988598625</v>
+        <v>-3.20857251293243</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>-2.206928717111161</v>
+        <v>-2.650352269504957</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>-1.653367051164359</v>
+        <v>-2.090174052455685</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>-1.099535572747909</v>
+        <v>-1.529014273769459</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>-0.5463918315238553</v>
+        <v>-0.9678464728693043</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.005112289930993386</v>
+        <v>-0.4076396487896414</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.5540321934076493</v>
+        <v>0.1506433919638257</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1.099432162164891</v>
+        <v>0.7060476690910212</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1.640386935186928</v>
+        <v>1.257627640980111</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2.175983255991455</v>
+        <v>1.804448793314582</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2.705321393437257</v>
+        <v>2.345589201177725</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>3.227516632041081</v>
+        <v>2.880141062085858</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>3.741700729377964</v>
+        <v>3.407212197444084</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>4.247023338207489</v>
+        <v>3.925927519984777</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>4.742653391040408</v>
+        <v>4.435430464819232</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>5.227780444935537</v>
+        <v>4.934884381806828</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>5.701615984395689</v>
+        <v>5.423473887023438</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>6.16339468031351</v>
+        <v>5.900406171191714</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>6.612375603003243</v>
+        <v>6.364912263019848</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>7.047843387442577</v>
+        <v>6.816248245482625</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>7.469109348939567</v>
+        <v>7.253696423168558</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>7.87551254753312</v>
+        <v>7.676566438909763</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>8.266420799531412</v>
+        <v>8.084196338006626</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>8.641231634690849</v>
+        <v>8.475953578457116</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>8.999373197638393</v>
+        <v>8.851235985700729</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>9.340305092242344</v>
+        <v>9.209472650489182</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>9.663519167740622</v>
+        <v>9.550124768600067</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>9.968540245541071</v>
+        <v>9.872686421215461</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>10.25492678571538</v>
+        <v>10.17668529489484</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>10.52227149231615</v>
+        <v>10.4616833401804</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>10.77020185675603</v>
+        <v>10.72727736798262</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>10.99838063859768</v>
+        <v>10.97309958300505</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>11.20650628321409</v>
+        <v>11.19881805357873</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>11.39431327588989</v>
+        <v>11.40413711738903</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>11.56157243204568</v>
+        <v>11.58879772269053</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>11.70809112337902</v>
+        <v>11.75257770471847</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>11.83371343982694</v>
+        <v>11.89529199711803</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>11.93832028736616</v>
+        <v>12.01679277832613</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>12.02182942177783</v>
+        <v>12.11696955295234</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>12.0841954186133</v>
+        <v>12.19574916831782</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>12.12540957970704</v>
+        <v>12.25309576642247</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>12.14549977669048</v>
+        <v>12.28901067172054</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>12.14453023206774</v>
+        <v>12.30353221519455</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>12.12260123851938</v>
+        <v>12.29673549532501</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>12.07984881720446</v>
+        <v>12.26873207666002</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>12.01644431593305</v>
+        <v>12.21966962679375</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>11.9325939481818</v>
+        <v>12.14973149266564</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>11.82853827402282</v>
+        <v>12.05913621719303</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>11.70455162413244</v>
+        <v>11.94813699734914</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>11.56094146813916</v>
+        <v>11.81702108489421</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>11.39804772866144</v>
+        <v>11.66610913106181</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>11.21624204247352</v>
+        <v>11.49575447659375</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>11.01592697032274</v>
+        <v>11.30634238860493</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>10.79753515700399</v>
+        <v>11.09828924584535</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>10.5615284433756</v>
+        <v>10.87204167400868</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>10.30839693207666</v>
+        <v>10.6280756328157</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>10.03865800877797</v>
+        <v>10.36689545667678</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>9.752855320867388</v>
+        <v>10.08903285080976</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>9.451557715535214</v>
+        <v>9.79504584475789</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>9.135358139286733</v>
+        <v>9.485517705317612</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>8.804872500966111</v>
+        <v>9.161055810946825</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>8.460738500429539</v>
+        <v>8.822290489781297</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>8.103614425054893</v>
+        <v>8.469873823440111</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>7.734177916320528</v>
+        <v>8.104478418849924</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>7.353124708727186</v>
+        <v>7.726796150362738</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>6.961167343374012</v>
+        <v>7.33753687448251</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>6.55903385853257</v>
+        <v>6.937427119552386</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>6.14746645959135</v>
+        <v>6.527208752786398</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>5.727220170767604</v>
+        <v>6.107637627057334</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>5.299061471003323</v>
+        <v>5.679482209875887</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>4.863766916477965</v>
+        <v>5.243522197015292</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>4.422121752181854</v>
+        <v>4.800547113250379</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>3.974918515001342</v>
+        <v>4.351354902690315</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>3.522955630769577</v>
+        <v>3.896750511190261</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>3.067036007735289</v>
+        <v>3.43754446332884</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>2.607965628896275</v>
+        <v>2.97455143643562</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>2.146552145634352</v>
+        <v>2.508588834145807</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>1.683603475074493</v>
+        <v>2.040475361948165</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>1.219926403572637</v>
+        <v>1.57102960717672</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.7563251987144688</v>
+        <v>1.101068625877224</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.2936002321811857</v>
+        <v>0.6314065389557124</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>-0.1674533841918391</v>
+        <v>0.1628531399887561</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>-0.6260471468716146</v>
+        <v>-0.3037874829566119</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>-1.081400491345176</v>
+        <v>-0.7677183091808427</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>-1.532742102885617</v>
+        <v>-1.22815072861455</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>-1.97931120519884</v>
+        <v>-1.684305864255782</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>-2.420358824831849</v>
+        <v>-2.13541587159837</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>-2.855149029275322</v>
+        <v>-2.580725212917939</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>-3.282960136748356</v>
+        <v>-3.019491904335697</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>-3.703085895711625</v>
+        <v>-3.450988733636912</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>-4.114836632216577</v>
+        <v>-3.874504446880981</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>-4.517540363262624</v>
+        <v>-4.289344901903013</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>-4.910543874401413</v>
+        <v>-4.694834186872864</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>-5.293213759897085</v>
+        <v>-5.090315702146291</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>-5.664937423823791</v>
+        <v>-5.475153203714427</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>-6.025124040556529</v>
+        <v>-5.848731806631744</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>-6.373205473188446</v>
+        <v>-6.210458946879122</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>-6.708637148486974</v>
+        <v>-6.559765300197363</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>-7.030898887082354</v>
+        <v>-6.896105656507306</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>-7.339495687665236</v>
+        <v>-7.218959748615521</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>-7.633958464054809</v>
+        <v>-7.527833033989282</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>-7.913844734085257</v>
+        <v>-7.822257428470804</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>-8.178739259346154</v>
+        <v>-8.101791990888715</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>-8.428254634901384</v>
+        <v>-8.366023557613962</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>-8.66203182820135</v>
+        <v>-8.614567326197943</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>-8.879740666494323</v>
+        <v>-8.847067387322207</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-9.081080272134617</v>
+        <v>-9.063197204381638</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>-9.26577944527787</v>
+        <v>-9.262660040116305</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>-9.433596993546617</v>
+        <v>-9.445189329801059</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>-9.584322008342733</v>
+        <v>-9.610549000596277</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>-9.717774087576741</v>
+        <v>-9.758533736757808</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>-9.833803504677467</v>
+        <v>-9.888969190498814</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>-9.932291323838857</v>
+        <v>-10.00171213839102</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>-10.0131494615537</v>
+        <v>-10.09665058328718</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>-10.07632069457659</v>
+        <v>-10.17370380184092</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>-10.12177861455024</v>
+        <v>-10.23282233779341</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>-10.14952752962047</v>
+        <v>-10.2739879412895</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>-10.15960231345514</v>
+        <v>-10.29721345457778</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>-10.15206820217156</v>
+        <v>-10.30254264454027</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>-10.12702053976443</v>
+        <v>-10.2900499825871</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>-10.08458447271303</v>
+        <v>-10.25984037254041</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>-10.02491459453091</v>
+        <v>-10.21204882721852</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>-9.948194541104684</v>
+        <v>-10.14684009451726</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>-9.854636537749792</v>
+        <v>-10.06440823386881</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-9.744480898990373</v>
+        <v>-9.96497614404044</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>-9.617995482147682</v>
+        <v>-9.848795043315411</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>-9.475475095896492</v>
+        <v>-9.71614390317586</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>-9.317240865021594</v>
+        <v>-9.567328836682947</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>-9.143639552676676</v>
+        <v>-9.402682442822524</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>-8.955042841515466</v>
+        <v>-9.222563108154992</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>-8.751846575129944</v>
+        <v>-9.027354267175795</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>-8.534469961292562</v>
+        <v>-8.817463622858057</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>-8.303354738558543</v>
+        <v>-8.593322328910972</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>-8.058964307840682</v>
+        <v>-8.355384135346835</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>-7.801782830622072</v>
+        <v>-8.104124499005625</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>-7.532314295522305</v>
+        <v>-7.840039660739215</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>-7.251081554979383</v>
+        <v>-7.563645691006895</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>-6.958625333853062</v>
+        <v>-7.275477505680537</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>-6.65550321179547</v>
+        <v>-6.976087853900769</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>-6.342288581271542</v>
+        <v>-6.666046279865272</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>-6.019569583145036</v>
+        <v>-6.345938060466564</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>-5.68794802177566</v>
+        <v>-6.016363120729357</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>-5.348038261599035</v>
+        <v>-5.677934929026732</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>-5.00046610718387</v>
+        <v>-5.33127937407997</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>-4.6458676687798</v>
+        <v>-4.977033625768827</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>-4.284888215384793</v>
+        <v>-4.615844981797403</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>-3.918181017372933</v>
+        <v>-4.248369702275397</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>-3.54640618073163</v>
+        <v>-3.875271834285606</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>-3.170229474961997</v>
+        <v>-3.497222028515899</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>-2.790321156697225</v>
+        <v>-3.114896350037658</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>-2.407354791091306</v>
+        <v>-2.728975085312752</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>-2.022006073024464</v>
+        <v>-2.34014154750767</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>-1.634951650162102</v>
+        <v>-1.949080882186349</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>-1.246867949891101</v>
+        <v>-1.556478875442607</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>-0.8584300121409072</v>
+        <v>-1.163020766518986</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>-0.4703103300769876</v>
+        <v>-0.7693900669412337</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>-0.08317770063116491</v>
+        <v>-0.3762673881766289</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.3023039131930906</v>
+        <v>0.01567072019995703</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.6854765063319156</v>
+        <v>0.4057529198760494</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>1.065689140113103</v>
+        <v>0.7933142187822435</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>1.442299033308982</v>
+        <v>1.177697089792238</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>1.814672633988959</v>
+        <v>1.558252571288015</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.182186670412208</v>
+        <v>1.934341347776054</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.544229179245521</v>
+        <v>2.305334808783516</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>2.900200509438532</v>
+        <v>2.670616084309164</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>3.249514300138383</v>
+        <v>3.029581055152385</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>3.591598431078275</v>
+        <v>3.38163933649493</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>3.925895943929174</v>
+        <v>3.726215233163698</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>4.251865933161061</v>
+        <v>4.062748665059141</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>4.568984405019467</v>
+        <v>4.390696061292361</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>4.876745103284524</v>
+        <v>4.709531221634724</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>5.174660300543158</v>
+        <v>5.018746143946646</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>5.462261553770444</v>
+        <v>5.317851816317051</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>5.739100423083182</v>
+        <v>5.606378972711685</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>6.004749152597484</v>
+        <v>5.883878810996935</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>6.258801312392421</v>
+        <v>6.14992367227586</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>6.500872400653377</v>
+        <v>6.404107680544721</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>6.730600405141657</v>
+        <v>6.64604734175122</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>6.947646323210906</v>
+        <v>6.875382101409901</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>7.151694639665935</v>
+        <v>7.091774860005379</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>7.342453761835434</v>
+        <v>7.294912445490445</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>7.519656411306674</v>
+        <v>7.484506042263134</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>7.683059971847587</v>
+        <v>7.660291576084756</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>7.832446793119281</v>
+        <v>7.822030054479275</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>7.967624449860129</v>
+        <v>7.969507862233307</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>8.088425956300846</v>
+        <v>8.102537011695173</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>8.194709935648259</v>
+        <v>8.220955347650801</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>8.286360744553807</v>
+        <v>8.324626706633639</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>8.363288552560819</v>
+        <v>8.413441030605064</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>8.425429376602406</v>
+        <v>8.487314435020739</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>8.472745070699052</v>
+        <v>8.546189231377154</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>8.505223271081727</v>
+        <v>8.59003390441065</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>8.522877297042212</v>
+        <v>8.618843044198854</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>8.525746007887552</v>
+        <v>8.632637233491142</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>8.513893616449565</v>
+        <v>8.631462890670646</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>8.487409459673467</v>
+        <v>8.61539206882518</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>8.446407726881366</v>
+        <v>8.584522211478083</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>8.391027146376905</v>
+        <v>8.538975865602428</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>8.321430631126251</v>
+        <v>8.478900352613051</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>8.237804884318093</v>
+        <v>8.404467398100312</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>8.140359965670932</v>
+        <v>8.315872721137373</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>8.029328819419936</v>
+        <v>8.2133355840589</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>7.904966764977575</v>
+        <v>8.097098303673313</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>7.767550951322264</v>
+        <v>7.967425724933037</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>7.617379776227144</v>
+        <v>7.824604658147413</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>7.454772271496775</v>
+        <v>7.668943280881024</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>7.280067455432994</v>
+        <v>7.500770505735983</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>7.093623653802163</v>
+        <v>7.320435315270255</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>6.895817790624647</v>
+        <v>7.128306065355089</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>6.687044650153454</v>
+        <v>6.924769758323232</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>6.467716111452383</v>
+        <v>6.710231287305571</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>6.23826035702491</v>
+        <v>6.485112653197135</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>5.999121056983093</v>
+        <v>6.249852155734081</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>5.750756530281138</v>
+        <v>6.004903560201081</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>5.493638884570768</v>
+        <v>5.750735241323567</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>5.228253136265185</v>
+        <v>5.487829305931496</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>4.95509631242519</v>
+        <v>5.216680696010465</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>4.674676536104811</v>
+        <v>4.937796273782383</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>4.387512096814681</v>
+        <v>4.65169389048118</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>4.09413050777927</v>
+        <v>4.358901440509349</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>3.795067551678988</v>
+        <v>4.059955902678436</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>3.490866316580012</v>
+        <v>3.755402370250797</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>3.182076223763614</v>
+        <v>3.44579307151119</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>2.8692520491726</v>
+        <v>3.131686382604874</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>2.552952940195317</v>
+        <v>2.813645834384027</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>2.233741429507589</v>
+        <v>2.492239115006316</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>1.912182447689796</v>
+        <v>2.16803707002852</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>1.588842336330275</v>
+        <v>1.841612701734097</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>1.264287863317206</v>
+        <v>1.513540169426631</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.9390852420092797</v>
+        <v>1.18439379241118</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.6137991559606956</v>
+        <v>0.8547470573726704</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.2889917908584526</v>
+        <v>0.5251716318447708</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>-0.03477812469041107</v>
+        <v>0.1962363854440879</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>-0.3569562679070604</v>
+        <v>-0.1314935794768536</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>-0.6769936585357309</v>
+        <v>-0.4574578861285018</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>-0.9943475819247167</v>
+        <v>-0.7811018289325039</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>-1.308482496963853</v>
+        <v>-1.101877304946173</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>-1.618870927382246</v>
+        <v>-1.419243729522099</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>-1.92499433494577</v>
+        <v>-1.732668934696308</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>-2.226343973131998</v>
+        <v>-2.041630048835289</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>-2.522421719900574</v>
+        <v>-2.345614356111473</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>-2.812740888219641</v>
+        <v>-2.644120134418302</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>-3.096827013053556</v>
+        <v>-2.936657470379722</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>-3.374218613563829</v>
+        <v>-3.222749050154781</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>-3.644467929323794</v>
+        <v>-3.501930924785839</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>-3.907141629397946</v>
+        <v>-3.773753248888659</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>-4.161821493189044</v>
+        <v>-4.037780991534234</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>-4.408105062009874</v>
+        <v>-4.293594618225519</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>-4.645606260391887</v>
+        <v>-4.540790742927207</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>-4.873955986199742</v>
+        <v>-4.778982749163141</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>-5.092802668678847</v>
+        <v>-5.007801379253899</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>-5.30181279362237</v>
+        <v>-5.226895290826299</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>-5.500671394904651</v>
+        <v>-5.435931579787058</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>-5.689082511689418</v>
+        <v>-5.634596269014371</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>-5.866769610683631</v>
+        <v>-5.822594762083763</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>-6.033475972870936</v>
+        <v>-5.99965226140803</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>-6.188965044222614</v>
+        <v>-6.165514150235296</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>-6.333020749948365</v>
+        <v>-6.319946338014133</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>-6.465447771914167</v>
+        <v>-6.462735568700131</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>-6.586071788919718</v>
+        <v>-6.593689691644213</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>-6.694739679593517</v>
+        <v>-6.712637894769179</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>-6.791319687729175</v>
+        <v>-6.819430899807393</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>-6.87570154995231</v>
+        <v>-6.913941119439079</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>-6.947796585672781</v>
+        <v>-6.996062776237122</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>-7.007537749342474</v>
+        <v>-7.065711983390702</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>-7.054879645103728</v>
+        <v>-7.122826787246153</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>-7.089798503978136</v>
+        <v>-7.167367171769237</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>-7.112292123809421</v>
+        <v>-7.199315025098264</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>-7.12237977223748</v>
+        <v>-7.218674068422228</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>-7.120102053043247</v>
+        <v>-7.225469747482095</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>-7.105520736265796</v>
+        <v>-7.219749087056644</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>-7.078718552553833</v>
+        <v>-7.201580508856476</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>-7.039798952273438</v>
+        <v>-7.171053613311188</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>-6.988885829952413</v>
+        <v>-7.12827892579481</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>-6.926123214698845</v>
+        <v>-7.073387607893593</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>-6.851674927287386</v>
+        <v>-7.006531134377883</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>-6.76572420466116</v>
+        <v>-6.927880936596049</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>-6.668473292650122</v>
+        <v>-6.837628013063183</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>-6.560143007757901</v>
+        <v>-6.735982508070431</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>-6.44097226891875</v>
+        <v>-6.623173259192302</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>-6.311217600173956</v>
+        <v>-6.499447314619024</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>-6.171152605262928</v>
+        <v>-6.365069421288889</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>-6.021067415168169</v>
+        <v>-6.220321484841522</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>-5.861268109695225</v>
+        <v>-6.065502002456973</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>-5.692076114208616</v>
+        <v>-5.900925469687484</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>-5.513827572682448</v>
+        <v>-5.726921762428595</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>-5.326872698259983</v>
+        <v>-5.543835495213897</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>-5.131575102549728</v>
+        <v>-5.352025357053151</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>-4.928311104916627</v>
+        <v>-5.15186342606662</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>-4.717469023055644</v>
+        <v>-4.943734464199246</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>-4.499448446161304</v>
+        <v>-4.728035193326754</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>-4.274659492030715</v>
+        <v>-4.505173554091732</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>-4.043522049459061</v>
+        <v>-4.275567948831346</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>-3.806465007305539</v>
+        <v>-4.03964646997941</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>-3.563925471624311</v>
+        <v>-3.797846115344142</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>-3.316347972269049</v>
+        <v>-3.550611991678986</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>-3.064183660391186</v>
+        <v>-3.298396507977452</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-2.807889498261025</v>
+        <v>-3.041658559933886</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>-2.547927442847332</v>
+        <v>-2.78086270702057</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>-2.284763624595054</v>
+        <v>-2.516478343637388</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>-2.018867522842256</v>
+        <v>-2.248978865793685</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>-1.750711139316342</v>
+        <v>-1.978840834782732</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>-1.480768171146142</v>
+        <v>-1.706543139307472</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>-1.209513184820445</v>
+        <v>-1.432566157511991</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>-0.9374207925151483</v>
+        <v>-1.157390920366426</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>-0.6649648322003586</v>
+        <v>-0.88149827784381</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>-0.3926175529255747</v>
+        <v>-0.605368069315722</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>-0.1208488066654963</v>
+        <v>-0.3294782995795519</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.1498747519088555</v>
+        <v>-0.0543043219137873</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>0.4190904563891717</v>
+        <v>0.2196819704610344</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.6863404089968637</v>
+        <v>0.4920129431590813</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.9511722490604064</v>
+        <v>0.7622260083103418</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1.21313990833202</v>
+        <v>1.029864399838193</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>1.471804351901411</v>
+        <v>1.29447793505311</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>1.726734303494994</v>
+        <v>1.555623761311847</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>1.977506953981681</v>
+        <v>1.812867086523101</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>2.223708651940842</v>
+        <v>2.065781892314269</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>2.464935575184345</v>
+        <v>2.313951628709401</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>2.700794382162703</v>
+        <v>2.556969889205766</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2.930902842224997</v>
+        <v>2.794441065175475</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>3.154890443743637</v>
+        <v>3.025980978559298</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>3.372398979157749</v>
+        <v>3.251217491862111</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>3.583083106033286</v>
+        <v>3.469791094503197</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>3.786610883283508</v>
+        <v>3.681355464619807</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>3.982664281740303</v>
+        <v>3.885578005468988</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>4.17093966831489</v>
+        <v>4.082140355620432</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>4.351148263035489</v>
+        <v>4.27073887218211</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>4.523016568299675</v>
+        <v>4.451085086350489</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>4.686286769730154</v>
+        <v>4.622906130628148</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>4.840717108074479</v>
+        <v>4.785945137103559</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>4.98608222164183</v>
+        <v>4.939961606240516</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>5.122173458823124</v>
+        <v>5.084731745678148</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>5.248799160294454</v>
+        <v>5.220048778596477</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>5.365784910558035</v>
+        <v>5.345723221257102</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>5.472973758529305</v>
+        <v>5.461583129383531</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>5.570226406933667</v>
+        <v>5.567474313101074</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>5.657421370331202</v>
+        <v>5.663260520211699</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>5.734455101642737</v>
+        <v>5.748823587634994</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>5.801242087105589</v>
+        <v>5.824063560902085</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>5.85771490964212</v>
+        <v>5.888898781645049</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>5.903824280678901</v>
+        <v>5.943265943079867</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>5.939539040508536</v>
+        <v>5.987120113536228</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>5.964846127340133</v>
+        <v>6.02043472814249</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>5.979750515237792</v>
+        <v>6.043201548828485</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>5.984275121199308</v>
+        <v>6.055430592862946</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>5.978460681679413</v>
+        <v>6.057150030195618</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>5.962365598913298</v>
+        <v>6.048406049926749</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>5.936065757446625</v>
+        <v>6.029262696278558</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>5.899654311327916</v>
+        <v>5.999801674494181</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>5.853241442467722</v>
+        <v>5.960122127139651</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>5.796954090716504</v>
+        <v>5.910340381333342</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>5.730935656259481</v>
+        <v>5.850589667475209</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>5.655345674971743</v>
+        <v>5.78101981009467</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>5.570359467420703</v>
+        <v>5.701796891481391</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>5.476167762245311</v>
+        <v>5.613102888807108</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>5.372976294682366</v>
+        <v>5.515135285489227</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>5.261005381049621</v>
+        <v>5.408106657587946</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>5.140489470033189</v>
+        <v>5.292244236068112</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>5.011676671662903</v>
+        <v>5.167789445794912</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>4.874828264893717</v>
+        <v>5.034997422168647</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>4.730218184743974</v>
+        <v>4.894136506338266</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>4.578132489972212</v>
+        <v>4.745487719966</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>4.418868812303284</v>
+        <v>4.589344220546248</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>4.252735788241687</v>
+        <v>4.42601073831076</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>4.080052474535289</v>
+        <v>4.255802995779197</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>3.901147748375845</v>
+        <v>4.079047111039171</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>3.716359693444068</v>
+        <v>3.896078985862904</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>3.526034972926197</v>
+        <v>3.707243679788669</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>3.330528190646315</v>
+        <v>3.512894771314127</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>3.130201241473741</v>
+        <v>3.313393707365567</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>2.925422652177975</v>
+        <v>3.109109142221827</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>2.716566913914625</v>
+        <v>2.900416267084367</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>2.504013807534624</v>
+        <v>2.687696131495502</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>2.288147722915859</v>
+        <v>2.47133495781523</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>2.069356973520984</v>
+        <v>2.251723449973379</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1.848033107387759</v>
+        <v>2.029256097717938</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1.62457021575875</v>
+        <v>1.804330477582477</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>1.399364240555583</v>
+        <v>1.577346551795423</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>1.17281228189927</v>
+        <v>1.348705966351778</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.9453119068723682</v>
+        <v>1.118811349463532</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.7172604607109564</v>
+        <v>0.8880656115986149</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.489054381604589</v>
+        <v>0.6568712483097994</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.2610885202706258</v>
+        <v>0.4256296470444657</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.03375546545557385</v>
+        <v>0.1947403991136417</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>-0.1925551234995888</v>
+        <v>-0.03539938201573256</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>-0.4174571759106848</v>
+        <v>-0.2643957349577731</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>-0.6405688597181927</v>
+        <v>-0.4918585160446226</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>-0.861513221092872</v>
+        <v>-0.7174020552543569</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>-1.079918812623315</v>
+        <v>-0.9406458013427493</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>-1.295420309054252</v>
+        <v>-1.161214955115561</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-1.507659109570773</v>
+        <v>-1.378741089803508</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>-1.716283925651573</v>
+        <v>-1.592862757529179</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>-1.920951353543819</v>
+        <v>-1.803226080883953</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>-2.121326430443208</v>
+        <v>-2.009485328663246</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>-2.317083173495237</v>
+        <v>-2.211303474840246</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>-2.507905100767439</v>
+        <v>-2.408352739891507</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>-2.69348573337749</v>
+        <v>-2.6003151136224</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>-2.87352907799837</v>
+        <v>-2.786882858676327</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>-3.047750088999308</v>
+        <v>-2.967758993948731</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>-3.215875109519802</v>
+        <v>-3.142657757165293</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>-3.377642290813676</v>
+        <v>-3.311305045923076</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>-3.532801989240707</v>
+        <v>-3.473438836533834</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>-3.681117140324826</v>
+        <v>-3.628809580050094</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>-3.82236360934019</v>
+        <v>-3.777180574896866</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>-3.956330517929446</v>
+        <v>-3.918328315574888</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>-4.082820546302136</v>
+        <v>-4.052042816945132</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>-4.201650210605513</v>
+        <v>-4.17812791364866</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>-4.3126501151047</v>
+        <v>-4.296401534260947</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>-4.415665178854356</v>
+        <v>-4.406695949825253</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>-4.510554836589496</v>
+        <v>-4.508857996455468</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>-4.597193213608877</v>
+        <v>-4.602749271745095</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>-4.675469274470302</v>
+        <v>-4.688246304765422</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>-4.745286945363284</v>
+        <v>-4.765240699482591</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>-4.806565210070538</v>
+        <v>-4.8336392514699</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-4.859238179475807</v>
+        <v>-4.89336403783838</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>-4.903255134621399</v>
+        <v>-4.944352480355295</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>-4.938580543364479</v>
+        <v>-4.986557381766621</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>-4.965194050726518</v>
+        <v>-5.019946935385802</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>-4.983090443075313</v>
+        <v>-5.044504708056913</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>-4.992279586323527</v>
+        <v>-5.060229596645906</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>-4.992786338371744</v>
+        <v>-5.067135758258543</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>-4.984650436067454</v>
+        <v>-5.065252514428179</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>-4.967926356994171</v>
+        <v>-5.054624229560309</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>-4.942683156446872</v>
+        <v>-5.035310163963998</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>-4.909004279991235</v>
+        <v>-5.007384301842654</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>-4.866987352044407</v>
+        <v>-4.970935154658155</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>-4.816743940954512</v>
+        <v>-4.926065540322955</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>-4.758399301094457</v>
+        <v>-4.872892338714465</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>-4.692092092522924</v>
+        <v>-4.811546224044625</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>-4.617974078801646</v>
+        <v>-4.742171374655079</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>-4.536209803593049</v>
+        <v>-4.664925160844752</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>-4.44697624669613</v>
+        <v>-4.579977811371737</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>-4.350462460210891</v>
+        <v>-4.487512059305304</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>-4.246869185552799</v>
+        <v>-4.387722767936334</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>-4.136408452068424</v>
+        <v>-4.280816537485688</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>-4.019303158031757</v>
+        <v>-4.167011293379724</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-3.895786634827479</v>
+        <v>-4.046535856890456</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-3.766102195152739</v>
+        <v>-3.919629498964605</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>-3.630502666092759</v>
+        <v>-3.786541478090966</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>-3.48924990794768</v>
+        <v>-3.64753056307916</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>-3.342614319708615</v>
+        <v>-3.502864541644819</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>-3.190874332099706</v>
+        <v>-3.352819715716556</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>-3.034315889120189</v>
+        <v>-3.197680384398782</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>-2.873231919035954</v>
+        <v>-3.037738315541341</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>-2.707921795783851</v>
+        <v>-2.873292206882164</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>-2.538690791764056</v>
+        <v>-2.704647137742647</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>-2.365849523006071</v>
+        <v>-2.532114012267153</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>-2.18971338770252</v>
+        <v>-2.356008995207994</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>-2.010601999111633</v>
+        <v>-2.17665294126544</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>-1.82883861383438</v>
+        <v>-1.994370818998647</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>-1.644749556475433</v>
+        <v>-1.809491130328049</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>-1.458663641698652</v>
+        <v>-1.622345326652515</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>-1.270911594687523</v>
+        <v>-1.43326722260565</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>-1.081825471018977</v>
+        <v>-1.242592408474837</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>-0.8917380769552765</v>
+        <v>-1.050657662304133</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>-0.7009823911532136</v>
+        <v>-0.8578003626978519</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>-0.5098909887827004</v>
+        <v>-0.6643579033356823</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>-0.3187954690380008</v>
+        <v>-0.4706671102024546</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>-0.1280258870143692</v>
+        <v>-0.2770636625262799</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>0.06208980908925719</v>
+        <v>-0.08388151840768776</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>0.2512263344945854</v>
+        <v>0.1085476538903288</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>0.4390616171636691</v>
+        <v>0.2998950380357949</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0.6252773389991655</v>
+        <v>0.4898352241651097</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0.8095594680286406</v>
+        <v>0.6780467549420961</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0.9915987806962024</v>
+        <v>0.8642126622355263</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>1.171091373405928</v>
+        <v>1.048020993532355</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>1.347739162484132</v>
+        <v>1.229165327225748</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>1.52125037175141</v>
+        <v>1.407345275940249</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>1.691340006920599</v>
+        <v>1.582266977080998</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1.857730316063171</v>
+        <v>1.753643569819789</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>2.02015123541422</v>
+        <v>1.921195657757852</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.178340819814884</v>
+        <v>2.084651756533529</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2.332045657120867</v>
+        <v>2.243748725672415</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>2.481021265936535</v>
+        <v>2.398232184008055</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>2.625032476065833</v>
+        <v>2.54785690803272</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.763853791103943</v>
+        <v>2.692387212570332</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>2.897269732627118</v>
+        <v>2.831597313196863</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>3.025075165472431</v>
+        <v>2.965271669867801</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>3.147075603634184</v>
+        <v>3.093205311247192</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>3.26308749633937</v>
+        <v>3.215204139268432</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>3.372938493900859</v>
+        <v>3.331085213493321</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>3.476467692983743</v>
+        <v>3.440677014872763</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>3.573525860957503</v>
+        <v>3.5438196885499</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>3.663975639044294</v>
+        <v>3.640365265384323</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>3.747691724011607</v>
+        <v>3.730177861914229</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>3.824561028195755</v>
+        <v>3.813133858511933</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>3.894482817681048</v>
+        <v>3.889122055526934</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>3.957368828498057</v>
+        <v>3.958043807249678</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>4.013143360742935</v>
+        <v>4.019813133568261</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>4.061743350558342</v>
+        <v>4.074356809229372</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>4.103118419955065</v>
+        <v>4.121614430653945</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>4.137230904491705</v>
+        <v>4.161538460296854</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>4.164055858868056</v>
+        <v>4.194094248578955</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>4.183581040525589</v>
+        <v>4.219260033458245</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>4.195806871386091</v>
+        <v>4.237026917745315</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>4.200746377896581</v>
+        <v>4.247398824306171</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>4.198425109585364</v>
+        <v>4.250392429333031</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>4.188881036370239</v>
+        <v>4.246037073900777</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>4.172164424895425</v>
+        <v>4.234374654063189</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>4.148337694208768</v>
+        <v>4.215459489779028</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>4.117475251124976</v>
+        <v>4.189358172993217</v>
       </c>
     </row>
   </sheetData>
